--- a/Trabalho1.xlsx
+++ b/Trabalho1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Sistemas IFTM\Lógica de Programação - Nelio Alves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistemas\workspace\Trabalho1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>TRABALHO 1 - ESTRUTURA SEQUENCIAL E CONDICIONAL</t>
   </si>
@@ -117,30 +117,6 @@
     <t>TESTE 2 -MULHER 1</t>
   </si>
   <si>
-    <t>Cálculo do IR de um certo país</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Abatimento:</t>
-  </si>
-  <si>
-    <t>saude/educa</t>
-  </si>
-  <si>
-    <t>Rendimento bancário:</t>
-  </si>
-  <si>
-    <t>Rendimento Salarial</t>
-  </si>
-  <si>
     <t>Rend. Bancário:</t>
   </si>
   <si>
@@ -157,6 +133,36 @@
   </si>
   <si>
     <t>Exemplo 1:</t>
+  </si>
+  <si>
+    <t>Faixa</t>
+  </si>
+  <si>
+    <t>Até</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Tabela de cálculo do IR Salarial</t>
+  </si>
+  <si>
+    <t>Rend. Bancario</t>
+  </si>
+  <si>
+    <t>Outos:</t>
+  </si>
+  <si>
+    <t>Abatimento saude/Educa.</t>
+  </si>
+  <si>
+    <t>1ª -  Isento:</t>
+  </si>
+  <si>
+    <t>2ª - 15%</t>
+  </si>
+  <si>
+    <t>3ª  - 20%</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -307,49 +313,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,9 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -380,7 +346,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,29 +364,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -724,128 +686,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>10</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>2.5</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>4</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>8</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -957,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" ref="N10:N13" si="2">L10*M10</f>
+        <f t="shared" ref="N10:N12" si="2">L10*M10</f>
         <v>10</v>
       </c>
     </row>
@@ -1129,7 +1091,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1145,138 +1107,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="28">
+        <v>8000.01</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24000</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="28">
+        <v>24000</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22"/>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="31">
         <v>0.2</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="24">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>8000.01</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="24">
-        <v>24000</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>24000</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C11" s="32">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
